--- a/常规学习/烟羽模型/data/demo1.xlsx
+++ b/常规学习/烟羽模型/data/demo1.xlsx
@@ -3,25 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="等线"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,7 +56,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -121,6 +128,1586 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>基于高斯分布的点源污染扩散</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <lineChart>
+        <grouping val="standard"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>Sheet1!$A$2</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="5"/>
+            <spPr>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>Sheet1!$C$1:$M$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.5</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.8</v>
+                </pt>
+                <pt idx="3">
+                  <v>1.5</v>
+                </pt>
+                <pt idx="4">
+                  <v>3</v>
+                </pt>
+                <pt idx="5">
+                  <v>5</v>
+                </pt>
+                <pt idx="6">
+                  <v>10</v>
+                </pt>
+                <pt idx="7">
+                  <v>20</v>
+                </pt>
+                <pt idx="8">
+                  <v>35</v>
+                </pt>
+                <pt idx="9">
+                  <v>60</v>
+                </pt>
+                <pt idx="10">
+                  <v>100</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Sheet1!$C$2:$M$2</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>2.646135114115514e-33</v>
+                </pt>
+                <pt idx="2">
+                  <v>1.138460216346629e-13</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.000577866268250268</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.9963980276416662</v>
+                </pt>
+                <pt idx="5">
+                  <v>5.646966968181748</v>
+                </pt>
+                <pt idx="6">
+                  <v>10.96018794094924</v>
+                </pt>
+                <pt idx="7">
+                  <v>10.68125465127515</v>
+                </pt>
+                <pt idx="8">
+                  <v>8.84958382554767</v>
+                </pt>
+                <pt idx="9">
+                  <v>7.014032297024469</v>
+                </pt>
+                <pt idx="10">
+                  <v>5.520356926441256</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>Sheet1!$A$3</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>3</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="5"/>
+            <spPr>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>Sheet1!$C$1:$M$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.5</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.8</v>
+                </pt>
+                <pt idx="3">
+                  <v>1.5</v>
+                </pt>
+                <pt idx="4">
+                  <v>3</v>
+                </pt>
+                <pt idx="5">
+                  <v>5</v>
+                </pt>
+                <pt idx="6">
+                  <v>10</v>
+                </pt>
+                <pt idx="7">
+                  <v>20</v>
+                </pt>
+                <pt idx="8">
+                  <v>35</v>
+                </pt>
+                <pt idx="9">
+                  <v>60</v>
+                </pt>
+                <pt idx="10">
+                  <v>100</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Sheet1!$C$3:$M$3</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>2.639095974168714e-20</v>
+                </pt>
+                <pt idx="2">
+                  <v>5.005233040305496e-08</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0462539099176936</v>
+                </pt>
+                <pt idx="4">
+                  <v>3.492356826456275</v>
+                </pt>
+                <pt idx="5">
+                  <v>8.157448019470925</v>
+                </pt>
+                <pt idx="6">
+                  <v>9.338719971850463</v>
+                </pt>
+                <pt idx="7">
+                  <v>7.304030406101132</v>
+                </pt>
+                <pt idx="8">
+                  <v>5.556755329983025</v>
+                </pt>
+                <pt idx="9">
+                  <v>4.210156678560412</v>
+                </pt>
+                <pt idx="10">
+                  <v>3.233367076154647</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>Sheet1!$A$4</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>5</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="5"/>
+            <spPr>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>Sheet1!$C$1:$M$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.5</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.8</v>
+                </pt>
+                <pt idx="3">
+                  <v>1.5</v>
+                </pt>
+                <pt idx="4">
+                  <v>3</v>
+                </pt>
+                <pt idx="5">
+                  <v>5</v>
+                </pt>
+                <pt idx="6">
+                  <v>10</v>
+                </pt>
+                <pt idx="7">
+                  <v>20</v>
+                </pt>
+                <pt idx="8">
+                  <v>35</v>
+                </pt>
+                <pt idx="9">
+                  <v>60</v>
+                </pt>
+                <pt idx="10">
+                  <v>100</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Sheet1!$C$4:$M$4</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>1.711198102638256e-16</v>
+                </pt>
+                <pt idx="2">
+                  <v>2.039450056332843e-06</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.1431613392157998</v>
+                </pt>
+                <pt idx="4">
+                  <v>4.237622874477704</v>
+                </pt>
+                <pt idx="5">
+                  <v>7.591608781624964</v>
+                </pt>
+                <pt idx="6">
+                  <v>7.420628430823849</v>
+                </pt>
+                <pt idx="7">
+                  <v>5.434025440511746</v>
+                </pt>
+                <pt idx="8">
+                  <v>4.029886437781028</v>
+                </pt>
+                <pt idx="9">
+                  <v>3.012399864024748</v>
+                </pt>
+                <pt idx="10">
+                  <v>2.29659155242981</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>Sheet1!$A$5</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>7</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="5"/>
+            <spPr>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>Sheet1!$C$1:$M$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.5</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.8</v>
+                </pt>
+                <pt idx="3">
+                  <v>1.5</v>
+                </pt>
+                <pt idx="4">
+                  <v>3</v>
+                </pt>
+                <pt idx="5">
+                  <v>5</v>
+                </pt>
+                <pt idx="6">
+                  <v>10</v>
+                </pt>
+                <pt idx="7">
+                  <v>20</v>
+                </pt>
+                <pt idx="8">
+                  <v>35</v>
+                </pt>
+                <pt idx="9">
+                  <v>60</v>
+                </pt>
+                <pt idx="10">
+                  <v>100</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Sheet1!$C$5:$M$5</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>1.657660259292739e-14</v>
+                </pt>
+                <pt idx="2">
+                  <v>1.354560465338001e-05</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.2434214781536013</v>
+                </pt>
+                <pt idx="4">
+                  <v>4.392142432473033</v>
+                </pt>
+                <pt idx="5">
+                  <v>6.838757514102688</v>
+                </pt>
+                <pt idx="6">
+                  <v>6.149026430597606</v>
+                </pt>
+                <pt idx="7">
+                  <v>4.34882195919805</v>
+                </pt>
+                <pt idx="8">
+                  <v>3.181863711966468</v>
+                </pt>
+                <pt idx="9">
+                  <v>2.3615933670513</v>
+                </pt>
+                <pt idx="10">
+                  <v>1.793462340224739</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>Sheet1!$A$6</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>9</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="5"/>
+            <spPr>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>Sheet1!$C$1:$M$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.5</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.8</v>
+                </pt>
+                <pt idx="3">
+                  <v>1.5</v>
+                </pt>
+                <pt idx="4">
+                  <v>3</v>
+                </pt>
+                <pt idx="5">
+                  <v>5</v>
+                </pt>
+                <pt idx="6">
+                  <v>10</v>
+                </pt>
+                <pt idx="7">
+                  <v>20</v>
+                </pt>
+                <pt idx="8">
+                  <v>35</v>
+                </pt>
+                <pt idx="9">
+                  <v>60</v>
+                </pt>
+                <pt idx="10">
+                  <v>100</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Sheet1!$C$6:$M$6</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>3.037799364372667e-13</v>
+                </pt>
+                <pt idx="2">
+                  <v>4.424398796850822e-05</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.3308309565053713</v>
+                </pt>
+                <pt idx="4">
+                  <v>4.340890248620719</v>
+                </pt>
+                <pt idx="5">
+                  <v>6.175638788821594</v>
+                </pt>
+                <pt idx="6">
+                  <v>5.262175725645785</v>
+                </pt>
+                <pt idx="7">
+                  <v>3.639177531474008</v>
+                </pt>
+                <pt idx="8">
+                  <v>2.639619632180518</v>
+                </pt>
+                <pt idx="9">
+                  <v>1.950169526568086</v>
+                </pt>
+                <pt idx="10">
+                  <v>1.477324178635857</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>Sheet1!$A$7</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>11</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="5"/>
+            <spPr>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>Sheet1!$C$1:$M$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.5</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.8</v>
+                </pt>
+                <pt idx="3">
+                  <v>1.5</v>
+                </pt>
+                <pt idx="4">
+                  <v>3</v>
+                </pt>
+                <pt idx="5">
+                  <v>5</v>
+                </pt>
+                <pt idx="6">
+                  <v>10</v>
+                </pt>
+                <pt idx="7">
+                  <v>20</v>
+                </pt>
+                <pt idx="8">
+                  <v>35</v>
+                </pt>
+                <pt idx="9">
+                  <v>60</v>
+                </pt>
+                <pt idx="10">
+                  <v>100</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Sheet1!$C$7:$M$7</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>2.367488538724202e-12</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.000100755921739764</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.4030590100269112</v>
+                </pt>
+                <pt idx="4">
+                  <v>4.213582943152838</v>
+                </pt>
+                <pt idx="5">
+                  <v>5.620727513286239</v>
+                </pt>
+                <pt idx="6">
+                  <v>4.609163315266293</v>
+                </pt>
+                <pt idx="7">
+                  <v>3.137045870453012</v>
+                </pt>
+                <pt idx="8">
+                  <v>2.261352658558965</v>
+                </pt>
+                <pt idx="9">
+                  <v>1.665244160814624</v>
+                </pt>
+                <pt idx="10">
+                  <v>1.259239359182669</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <tx>
+            <strRef>
+              <f>Sheet1!$A$8</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>13</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="5"/>
+            <spPr>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>Sheet1!$C$1:$M$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.5</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.8</v>
+                </pt>
+                <pt idx="3">
+                  <v>1.5</v>
+                </pt>
+                <pt idx="4">
+                  <v>3</v>
+                </pt>
+                <pt idx="5">
+                  <v>5</v>
+                </pt>
+                <pt idx="6">
+                  <v>10</v>
+                </pt>
+                <pt idx="7">
+                  <v>20</v>
+                </pt>
+                <pt idx="8">
+                  <v>35</v>
+                </pt>
+                <pt idx="9">
+                  <v>60</v>
+                </pt>
+                <pt idx="10">
+                  <v>100</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Sheet1!$C$8:$M$8</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>1.111877676711954e-11</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0001856775042033661</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.4616334458545954</v>
+                </pt>
+                <pt idx="4">
+                  <v>4.060116420532997</v>
+                </pt>
+                <pt idx="5">
+                  <v>5.157243749140765</v>
+                </pt>
+                <pt idx="6">
+                  <v>4.107560202574274</v>
+                </pt>
+                <pt idx="7">
+                  <v>2.761889766005492</v>
+                </pt>
+                <pt idx="8">
+                  <v>1.981562745510503</v>
+                </pt>
+                <pt idx="9">
+                  <v>1.455581924951045</v>
+                </pt>
+                <pt idx="10">
+                  <v>1.099206271520023</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="7"/>
+          <order val="7"/>
+          <tx>
+            <strRef>
+              <f>Sheet1!$A$9</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>15</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="5"/>
+            <spPr>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>Sheet1!$C$1:$M$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.5</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.8</v>
+                </pt>
+                <pt idx="3">
+                  <v>1.5</v>
+                </pt>
+                <pt idx="4">
+                  <v>3</v>
+                </pt>
+                <pt idx="5">
+                  <v>5</v>
+                </pt>
+                <pt idx="6">
+                  <v>10</v>
+                </pt>
+                <pt idx="7">
+                  <v>20</v>
+                </pt>
+                <pt idx="8">
+                  <v>35</v>
+                </pt>
+                <pt idx="9">
+                  <v>60</v>
+                </pt>
+                <pt idx="10">
+                  <v>100</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Sheet1!$C$9:$M$9</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>3.758833175670345e-11</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0002985964244689445</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.5088281528443749</v>
+                </pt>
+                <pt idx="4">
+                  <v>3.901339268301807</v>
+                </pt>
+                <pt idx="5">
+                  <v>4.766576976190516</v>
+                </pt>
+                <pt idx="6">
+                  <v>3.709502095389674</v>
+                </pt>
+                <pt idx="7">
+                  <v>2.470287468252037</v>
+                </pt>
+                <pt idx="8">
+                  <v>1.765729139325073</v>
+                </pt>
+                <pt idx="9">
+                  <v>1.294477577087286</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.9764954401271314</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="8"/>
+          <order val="8"/>
+          <tx>
+            <strRef>
+              <f>Sheet1!$A$10</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>17</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="5"/>
+            <spPr>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>Sheet1!$C$1:$M$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.5</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.8</v>
+                </pt>
+                <pt idx="3">
+                  <v>1.5</v>
+                </pt>
+                <pt idx="4">
+                  <v>3</v>
+                </pt>
+                <pt idx="5">
+                  <v>5</v>
+                </pt>
+                <pt idx="6">
+                  <v>10</v>
+                </pt>
+                <pt idx="7">
+                  <v>20</v>
+                </pt>
+                <pt idx="8">
+                  <v>35</v>
+                </pt>
+                <pt idx="9">
+                  <v>60</v>
+                </pt>
+                <pt idx="10">
+                  <v>100</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Sheet1!$C$10:$M$10</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>1.012190719209187e-10</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.000437317932118823</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.5467755728860878</v>
+                </pt>
+                <pt idx="4">
+                  <v>3.746261241193078</v>
+                </pt>
+                <pt idx="5">
+                  <v>4.433524253031236</v>
+                </pt>
+                <pt idx="6">
+                  <v>3.385431633985862</v>
+                </pt>
+                <pt idx="7">
+                  <v>2.236716293858469</v>
+                </pt>
+                <pt idx="8">
+                  <v>1.593879714925702</v>
+                </pt>
+                <pt idx="9">
+                  <v>1.166601069566656</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.8792560617810016</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="9"/>
+          <order val="9"/>
+          <tx>
+            <strRef>
+              <f>Sheet1!$A$11</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>19</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="5"/>
+            <spPr>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>Sheet1!$C$1:$M$1</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.5</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.8</v>
+                </pt>
+                <pt idx="3">
+                  <v>1.5</v>
+                </pt>
+                <pt idx="4">
+                  <v>3</v>
+                </pt>
+                <pt idx="5">
+                  <v>5</v>
+                </pt>
+                <pt idx="6">
+                  <v>10</v>
+                </pt>
+                <pt idx="7">
+                  <v>20</v>
+                </pt>
+                <pt idx="8">
+                  <v>35</v>
+                </pt>
+                <pt idx="9">
+                  <v>60</v>
+                </pt>
+                <pt idx="10">
+                  <v>100</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>Sheet1!$C$11:$M$11</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="11"/>
+                <pt idx="0">
+                  <v>0</v>
+                </pt>
+                <pt idx="1">
+                  <v>2.311063031407698e-10</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0005987823367804505</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.5772614895105326</v>
+                </pt>
+                <pt idx="4">
+                  <v>3.598676863306122</v>
+                </pt>
+                <pt idx="5">
+                  <v>4.146406907669956</v>
+                </pt>
+                <pt idx="6">
+                  <v>3.116125749434626</v>
+                </pt>
+                <pt idx="7">
+                  <v>2.045161939841834</v>
+                </pt>
+                <pt idx="8">
+                  <v>1.453630441211112</v>
+                </pt>
+                <pt idx="9">
+                  <v>1.062502740106904</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.800205895159401</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <marker val="1"/>
+        <smooth val="0"/>
+        <axId val="655758415"/>
+        <axId val="655757167"/>
+      </lineChart>
+      <catAx>
+        <axId val="655758415"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>与原点距离（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>km</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>）</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200" b="1">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="0"/>
+          <spPr>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </txPr>
+        <crossAx val="655757167"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="655757167"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>浓度</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>(mmg/m3)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="1">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="0"/>
+          <spPr>
+            <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </txPr>
+        <crossAx val="655758415"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </txPr>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>438150</colOff>
+      <row>2</row>
+      <rowOff>63500</rowOff>
+    </from>
+    <to>
+      <col>15</col>
+      <colOff>95250</colOff>
+      <row>20</row>
+      <rowOff>88900</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,10 +1980,10 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -448,40 +2035,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>90.37130065391077</v>
+        <v>222.1601369918473</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.646135114115514e-33</v>
+        <v>12.56866474523294</v>
       </c>
       <c r="E2" t="n">
-        <v>1.138460216346629e-13</v>
+        <v>22.40029169808893</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000577866268250268</v>
+        <v>13.10546448610825</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9963980276416662</v>
+        <v>4.278842117868336</v>
       </c>
       <c r="H2" t="n">
-        <v>5.646966968181748</v>
+        <v>1.728843758884483</v>
       </c>
       <c r="I2" t="n">
-        <v>10.96018794094924</v>
+        <v>0.5083971655755939</v>
       </c>
       <c r="J2" t="n">
-        <v>10.68125465127515</v>
+        <v>0.1563861392018306</v>
       </c>
       <c r="K2" t="n">
-        <v>8.84958382554767</v>
+        <v>0.06260642460422987</v>
       </c>
       <c r="L2" t="n">
-        <v>7.014032297024469</v>
+        <v>0.02657905577455605</v>
       </c>
       <c r="M2" t="n">
-        <v>5.520356926441256</v>
+        <v>0.0119960151180749</v>
       </c>
     </row>
     <row r="3">
@@ -489,40 +2076,40 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>71.85912195560087</v>
+        <v>94.05337899728242</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.639095974168714e-20</v>
+        <v>31.75495960416669</v>
       </c>
       <c r="E3" t="n">
-        <v>5.005233040305496e-08</v>
+        <v>16.47188230460514</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0462539099176936</v>
+        <v>5.471033191314205</v>
       </c>
       <c r="G3" t="n">
-        <v>3.492356826456275</v>
+        <v>1.508827371316706</v>
       </c>
       <c r="H3" t="n">
-        <v>8.157448019470925</v>
+        <v>0.5880725779081223</v>
       </c>
       <c r="I3" t="n">
-        <v>9.338719971850463</v>
+        <v>0.1703260108532859</v>
       </c>
       <c r="J3" t="n">
-        <v>7.304030406101132</v>
+        <v>0.05219474506133571</v>
       </c>
       <c r="K3" t="n">
-        <v>5.556755329983025</v>
+        <v>0.02087743627427932</v>
       </c>
       <c r="L3" t="n">
-        <v>4.210156678560412</v>
+        <v>0.008860931518653675</v>
       </c>
       <c r="M3" t="n">
-        <v>3.233367076154647</v>
+        <v>0.003998874189333299</v>
       </c>
     </row>
     <row r="4">
@@ -530,40 +2117,40 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>65.30535079820342</v>
+        <v>68.43202739836946</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.711198102638256e-16</v>
+        <v>23.46190597957832</v>
       </c>
       <c r="E4" t="n">
-        <v>2.039450056332843e-06</v>
+        <v>10.72030561578743</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1431613392157998</v>
+        <v>3.359426139806639</v>
       </c>
       <c r="G4" t="n">
-        <v>4.237622874477704</v>
+        <v>0.9105460791090838</v>
       </c>
       <c r="H4" t="n">
-        <v>7.591608781624964</v>
+        <v>0.3535787724139844</v>
       </c>
       <c r="I4" t="n">
-        <v>7.420628430823849</v>
+        <v>0.1022488016133878</v>
       </c>
       <c r="J4" t="n">
-        <v>5.434025440511746</v>
+        <v>0.0313209215215868</v>
       </c>
       <c r="K4" t="n">
-        <v>4.029886437781028</v>
+        <v>0.0125269939070892</v>
       </c>
       <c r="L4" t="n">
-        <v>3.012399864024748</v>
+        <v>0.005316635763635458</v>
       </c>
       <c r="M4" t="n">
-        <v>2.29659155242981</v>
+        <v>0.002399336999404504</v>
       </c>
     </row>
     <row r="5">
@@ -571,40 +2158,40 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>61.55957788633846</v>
+        <v>57.45144814169247</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.657660259292739e-14</v>
+        <v>17.95770949614961</v>
       </c>
       <c r="E5" t="n">
-        <v>1.354560465338001e-05</v>
+        <v>7.866906864042658</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2434214781536013</v>
+        <v>2.418088200487481</v>
       </c>
       <c r="G5" t="n">
-        <v>4.392142432473033</v>
+        <v>0.6516398904741608</v>
       </c>
       <c r="H5" t="n">
-        <v>6.838757514102688</v>
+        <v>0.2527308772575538</v>
       </c>
       <c r="I5" t="n">
-        <v>6.149026430597606</v>
+        <v>0.07304747865401441</v>
       </c>
       <c r="J5" t="n">
-        <v>4.34882195919805</v>
+        <v>0.02237305320770211</v>
       </c>
       <c r="K5" t="n">
-        <v>3.181863711966468</v>
+        <v>0.008947978999623364</v>
       </c>
       <c r="L5" t="n">
-        <v>2.3615933670513</v>
+        <v>0.003797615200866241</v>
       </c>
       <c r="M5" t="n">
-        <v>1.793462340224739</v>
+        <v>0.00171381510363069</v>
       </c>
     </row>
     <row r="6">
@@ -612,40 +2199,40 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>59.02349414233404</v>
+        <v>51.35112633242748</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3.037799364372667e-13</v>
+        <v>14.43840439988763</v>
       </c>
       <c r="E6" t="n">
-        <v>4.424398796850822e-05</v>
+        <v>6.198541477218134</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3308309565053713</v>
+        <v>1.887683078657337</v>
       </c>
       <c r="G6" t="n">
-        <v>4.340890248620719</v>
+        <v>0.5072984626228744</v>
       </c>
       <c r="H6" t="n">
-        <v>6.175638788821594</v>
+        <v>0.1966337051774745</v>
       </c>
       <c r="I6" t="n">
-        <v>5.262175725645785</v>
+        <v>0.05681941952350299</v>
       </c>
       <c r="J6" t="n">
-        <v>3.639177531474008</v>
+        <v>0.01740162453952077</v>
       </c>
       <c r="K6" t="n">
-        <v>2.639619632180518</v>
+        <v>0.006959586357394663</v>
       </c>
       <c r="L6" t="n">
-        <v>1.950169526568086</v>
+        <v>0.002953707518952052</v>
       </c>
       <c r="M6" t="n">
-        <v>1.477324178635857</v>
+        <v>0.00133296840873851</v>
       </c>
     </row>
     <row r="7">
@@ -653,40 +2240,40 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>57.14561200880911</v>
+        <v>47.46910336289521</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.367488538724202e-12</v>
+        <v>12.04201823531911</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000100755921739764</v>
+        <v>5.109675750734072</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4030590100269112</v>
+        <v>1.547763108626869</v>
       </c>
       <c r="G7" t="n">
-        <v>4.213582943152838</v>
+        <v>0.4152835863607426</v>
       </c>
       <c r="H7" t="n">
-        <v>5.620727513286239</v>
+        <v>0.1609129843707559</v>
       </c>
       <c r="I7" t="n">
-        <v>4.609163315266293</v>
+        <v>0.04649084528653861</v>
       </c>
       <c r="J7" t="n">
-        <v>3.137045870453012</v>
+        <v>0.01423786349039512</v>
       </c>
       <c r="K7" t="n">
-        <v>2.261352658558965</v>
+        <v>0.005694229309784983</v>
       </c>
       <c r="L7" t="n">
-        <v>1.665244160814624</v>
+        <v>0.002416673007293516</v>
       </c>
       <c r="M7" t="n">
-        <v>1.259239359182669</v>
+        <v>0.001090611039219006</v>
       </c>
     </row>
     <row r="8">
@@ -694,40 +2281,40 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>55.67533280956744</v>
+        <v>44.78154899937287</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.111877676711954e-11</v>
+        <v>10.31649840722885</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0001856775042033661</v>
+        <v>4.344558836607676</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4616334458545954</v>
+        <v>1.311450831761138</v>
       </c>
       <c r="G8" t="n">
-        <v>4.060116420532997</v>
+        <v>0.351514825497254</v>
       </c>
       <c r="H8" t="n">
-        <v>5.157243749140765</v>
+        <v>0.1361740202952004</v>
       </c>
       <c r="I8" t="n">
-        <v>4.107560202574274</v>
+        <v>0.03933962670879113</v>
       </c>
       <c r="J8" t="n">
-        <v>2.761889766005492</v>
+        <v>0.01204751629443622</v>
       </c>
       <c r="K8" t="n">
-        <v>1.981562745510503</v>
+        <v>0.004818206220844487</v>
       </c>
       <c r="L8" t="n">
-        <v>1.455581924951045</v>
+        <v>0.00204487892037814</v>
       </c>
       <c r="M8" t="n">
-        <v>1.099206271520023</v>
+        <v>0.0009228250114864023</v>
       </c>
     </row>
     <row r="9">
@@ -735,40 +2322,40 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>54.47936302083852</v>
+        <v>42.81067579945648</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.758833175670345e-11</v>
+        <v>9.018474680619766</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0002985964244689445</v>
+        <v>3.778001317899943</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5088281528443749</v>
+        <v>1.137681317408606</v>
       </c>
       <c r="G9" t="n">
-        <v>3.901339268301807</v>
+        <v>0.3047192353491543</v>
       </c>
       <c r="H9" t="n">
-        <v>4.766576976190516</v>
+        <v>0.1180276715616163</v>
       </c>
       <c r="I9" t="n">
-        <v>3.709502095389674</v>
+        <v>0.03409507888236737</v>
       </c>
       <c r="J9" t="n">
-        <v>2.470287468252037</v>
+        <v>0.01044123711660462</v>
       </c>
       <c r="K9" t="n">
-        <v>1.765729139325073</v>
+        <v>0.004175786080635426</v>
       </c>
       <c r="L9" t="n">
-        <v>1.294477577087286</v>
+        <v>0.001772229459971801</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9764954401271314</v>
+        <v>0.0007997818492076233</v>
       </c>
     </row>
     <row r="10">
@@ -776,40 +2363,40 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>53.47907007666788</v>
+        <v>41.30353747010867</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.012190719209187e-10</v>
+        <v>8.00807702457219</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000437317932118823</v>
+        <v>3.341794659205779</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5467755728860878</v>
+        <v>1.004543695052899</v>
       </c>
       <c r="G10" t="n">
-        <v>3.746261241193078</v>
+        <v>0.2689172581428996</v>
       </c>
       <c r="H10" t="n">
-        <v>4.433524253031236</v>
+        <v>0.1041486644878661</v>
       </c>
       <c r="I10" t="n">
-        <v>3.385431633985862</v>
+        <v>0.03008436985876851</v>
       </c>
       <c r="J10" t="n">
-        <v>2.236716293858469</v>
+        <v>0.009212892777240493</v>
       </c>
       <c r="K10" t="n">
-        <v>1.593879714925702</v>
+        <v>0.003684521896227582</v>
       </c>
       <c r="L10" t="n">
-        <v>1.166601069566656</v>
+        <v>0.001563732564768894</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8792560617810016</v>
+        <v>0.0007056899787748404</v>
       </c>
     </row>
     <row r="11">
@@ -817,43 +2404,45 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>52.62451782055605</v>
+        <v>40.11369142062354</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.311063031407698e-10</v>
+        <v>7.199911423950878</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0005987823367804505</v>
+        <v>2.995689494841822</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5772614895105326</v>
+        <v>0.899286108886582</v>
       </c>
       <c r="G11" t="n">
-        <v>3.598676863306122</v>
+        <v>0.2406425539368498</v>
       </c>
       <c r="H11" t="n">
-        <v>4.146406907669956</v>
+        <v>0.09319016091437746</v>
       </c>
       <c r="I11" t="n">
-        <v>3.116125749434626</v>
+        <v>0.02691792003790384</v>
       </c>
       <c r="J11" t="n">
-        <v>2.045161939841834</v>
+        <v>0.008243139544675954</v>
       </c>
       <c r="K11" t="n">
-        <v>1.453630441211112</v>
+        <v>0.003296680744898237</v>
       </c>
       <c r="L11" t="n">
-        <v>1.062502740106904</v>
+        <v>0.001399129607520756</v>
       </c>
       <c r="M11" t="n">
-        <v>0.800205895159401</v>
+        <v>0.000631406899572941</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="1200" verticalDpi="1200"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/常规学习/烟羽模型/data/demo1.xlsx
+++ b/常规学习/烟羽模型/data/demo1.xlsx
@@ -1527,7 +1527,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -1628,7 +1628,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -1666,7 +1666,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN"/>
         </a:p>

--- a/常规学习/烟羽模型/data/demo1.xlsx
+++ b/常规学习/烟羽模型/data/demo1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -164,17 +164,6 @@
         <ser>
           <idx val="0"/>
           <order val="0"/>
-          <tx>
-            <strRef>
-              <f>Sheet1!$A$2</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>1</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
@@ -199,86 +188,77 @@
               </a:ln>
             </spPr>
           </marker>
-          <cat>
+          <val>
             <numRef>
-              <f>Sheet1!$C$1:$M$1</f>
+              <f>(Sheet1!$A$1,Sheet1!$C$1:$W$1)</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="22"/>
                 <pt idx="0">
                   <v>0</v>
                 </pt>
                 <pt idx="1">
+                  <v>0</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.05</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.1</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.15</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.2</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.25</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.3</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.35</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.4</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.45</v>
+                </pt>
+                <pt idx="11">
                   <v>0.5</v>
                 </pt>
-                <pt idx="2">
-                  <v>0.8</v>
-                </pt>
-                <pt idx="3">
-                  <v>1.5</v>
-                </pt>
-                <pt idx="4">
+                <pt idx="12">
+                  <v>1</v>
+                </pt>
+                <pt idx="13">
+                  <v>2</v>
+                </pt>
+                <pt idx="14">
                   <v>3</v>
                 </pt>
-                <pt idx="5">
+                <pt idx="15">
+                  <v>4</v>
+                </pt>
+                <pt idx="16">
                   <v>5</v>
                 </pt>
-                <pt idx="6">
+                <pt idx="17">
+                  <v>6</v>
+                </pt>
+                <pt idx="18">
+                  <v>7</v>
+                </pt>
+                <pt idx="19">
+                  <v>8</v>
+                </pt>
+                <pt idx="20">
+                  <v>9</v>
+                </pt>
+                <pt idx="21">
                   <v>10</v>
-                </pt>
-                <pt idx="7">
-                  <v>20</v>
-                </pt>
-                <pt idx="8">
-                  <v>35</v>
-                </pt>
-                <pt idx="9">
-                  <v>60</v>
-                </pt>
-                <pt idx="10">
-                  <v>100</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>Sheet1!$C$2:$M$2</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="11"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>2.646135114115514e-33</v>
-                </pt>
-                <pt idx="2">
-                  <v>1.138460216346629e-13</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.000577866268250268</v>
-                </pt>
-                <pt idx="4">
-                  <v>0.9963980276416662</v>
-                </pt>
-                <pt idx="5">
-                  <v>5.646966968181748</v>
-                </pt>
-                <pt idx="6">
-                  <v>10.96018794094924</v>
-                </pt>
-                <pt idx="7">
-                  <v>10.68125465127515</v>
-                </pt>
-                <pt idx="8">
-                  <v>8.84958382554767</v>
-                </pt>
-                <pt idx="9">
-                  <v>7.014032297024469</v>
-                </pt>
-                <pt idx="10">
-                  <v>5.520356926441256</v>
                 </pt>
               </numCache>
             </numRef>
@@ -288,17 +268,6 @@
         <ser>
           <idx val="1"/>
           <order val="1"/>
-          <tx>
-            <strRef>
-              <f>Sheet1!$A$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>3</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
@@ -323,86 +292,77 @@
               </a:ln>
             </spPr>
           </marker>
-          <cat>
+          <val>
             <numRef>
-              <f>Sheet1!$C$1:$M$1</f>
+              <f>(Sheet1!$A$2,Sheet1!$C$2:$W$2)</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="22"/>
                 <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
                   <v>0</v>
                 </pt>
-                <pt idx="1">
-                  <v>0.5</v>
-                </pt>
                 <pt idx="2">
-                  <v>0.8</v>
+                  <v>9.732290940443023e-104</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.5</v>
+                  <v>5.850652360400833e-24</v>
                 </pt>
                 <pt idx="4">
-                  <v>3</v>
+                  <v>2.001124114746035e-09</v>
                 </pt>
                 <pt idx="5">
-                  <v>5</v>
+                  <v>0.0001829264842659083</v>
                 </pt>
                 <pt idx="6">
-                  <v>10</v>
+                  <v>0.0302633886185275</v>
                 </pt>
                 <pt idx="7">
-                  <v>20</v>
+                  <v>0.4300387342403578</v>
                 </pt>
                 <pt idx="8">
-                  <v>35</v>
+                  <v>1.952052219227675</v>
                 </pt>
                 <pt idx="9">
-                  <v>60</v>
+                  <v>4.877321697113171</v>
                 </pt>
                 <pt idx="10">
-                  <v>100</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>Sheet1!$C$3:$M$3</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="11"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>2.639095974168714e-20</v>
-                </pt>
-                <pt idx="2">
-                  <v>5.005233040305496e-08</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.0462539099176936</v>
-                </pt>
-                <pt idx="4">
-                  <v>3.492356826456275</v>
-                </pt>
-                <pt idx="5">
-                  <v>8.157448019470925</v>
-                </pt>
-                <pt idx="6">
-                  <v>9.338719971850463</v>
-                </pt>
-                <pt idx="7">
-                  <v>7.304030406101132</v>
-                </pt>
-                <pt idx="8">
-                  <v>5.556755329983025</v>
-                </pt>
-                <pt idx="9">
-                  <v>4.210156678560412</v>
-                </pt>
-                <pt idx="10">
-                  <v>3.233367076154647</v>
+                  <v>8.677077356045309</v>
+                </pt>
+                <pt idx="11">
+                  <v>12.56866474523294</v>
+                </pt>
+                <pt idx="12">
+                  <v>20.47059939134863</v>
+                </pt>
+                <pt idx="13">
+                  <v>8.490138544254444</v>
+                </pt>
+                <pt idx="14">
+                  <v>4.278842117868336</v>
+                </pt>
+                <pt idx="15">
+                  <v>2.573745871209594</v>
+                </pt>
+                <pt idx="16">
+                  <v>1.728843758884483</v>
+                </pt>
+                <pt idx="17">
+                  <v>1.249344921474599</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.9504467950045677</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.7509954000036365</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.6108736875925327</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.5083971655755939</v>
                 </pt>
               </numCache>
             </numRef>
@@ -412,17 +372,6 @@
         <ser>
           <idx val="2"/>
           <order val="2"/>
-          <tx>
-            <strRef>
-              <f>Sheet1!$A$4</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>5</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
@@ -447,86 +396,77 @@
               </a:ln>
             </spPr>
           </marker>
-          <cat>
+          <val>
             <numRef>
-              <f>Sheet1!$C$1:$M$1</f>
+              <f>(Sheet1!$A$3,Sheet1!$C$3:$W$3)</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="22"/>
                 <pt idx="0">
+                  <v>3</v>
+                </pt>
+                <pt idx="1">
                   <v>0</v>
                 </pt>
-                <pt idx="1">
-                  <v>0.5</v>
-                </pt>
                 <pt idx="2">
-                  <v>0.8</v>
+                  <v>2.988557067250278e-16</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.5</v>
+                  <v>0.01910622861461974</v>
                 </pt>
                 <pt idx="4">
-                  <v>3</v>
+                  <v>3.962519448935131</v>
                 </pt>
                 <pt idx="5">
-                  <v>5</v>
+                  <v>19.18352072654361</v>
                 </pt>
                 <pt idx="6">
-                  <v>10</v>
+                  <v>33.2943859057432</v>
                 </pt>
                 <pt idx="7">
-                  <v>20</v>
+                  <v>39.79614267433649</v>
                 </pt>
                 <pt idx="8">
-                  <v>35</v>
+                  <v>40.6033021187552</v>
                 </pt>
                 <pt idx="9">
-                  <v>60</v>
+                  <v>38.50378224814001</v>
                 </pt>
                 <pt idx="10">
-                  <v>100</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>Sheet1!$C$4:$M$4</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="11"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>1.711198102638256e-16</v>
-                </pt>
-                <pt idx="2">
-                  <v>2.039450056332843e-06</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.1431613392157998</v>
-                </pt>
-                <pt idx="4">
-                  <v>4.237622874477704</v>
-                </pt>
-                <pt idx="5">
-                  <v>7.591608781624964</v>
-                </pt>
-                <pt idx="6">
-                  <v>7.420628430823849</v>
-                </pt>
-                <pt idx="7">
-                  <v>5.434025440511746</v>
-                </pt>
-                <pt idx="8">
-                  <v>4.029886437781028</v>
-                </pt>
-                <pt idx="9">
-                  <v>3.012399864024748</v>
-                </pt>
-                <pt idx="10">
-                  <v>2.29659155242981</v>
+                  <v>35.25592088446234</v>
+                </pt>
+                <pt idx="11">
+                  <v>31.75495960416669</v>
+                </pt>
+                <pt idx="12">
+                  <v>11.32192370139057</v>
+                </pt>
+                <pt idx="13">
+                  <v>3.211968314123242</v>
+                </pt>
+                <pt idx="14">
+                  <v>1.508827371316706</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.8855005610036424</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.5880725779081223</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.4223473151078884</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.3201065301176793</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.2523202639325854</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.2049014887667966</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.1703260108532859</v>
                 </pt>
               </numCache>
             </numRef>
@@ -536,17 +476,6 @@
         <ser>
           <idx val="3"/>
           <order val="3"/>
-          <tx>
-            <strRef>
-              <f>Sheet1!$A$5</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>7</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
@@ -571,86 +500,77 @@
               </a:ln>
             </spPr>
           </marker>
-          <cat>
+          <val>
             <numRef>
-              <f>Sheet1!$C$1:$M$1</f>
+              <f>(Sheet1!$A$4,Sheet1!$C$4:$W$4)</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="22"/>
                 <pt idx="0">
+                  <v>5</v>
+                </pt>
+                <pt idx="1">
                   <v>0</v>
                 </pt>
-                <pt idx="1">
-                  <v>0.5</v>
-                </pt>
                 <pt idx="2">
-                  <v>0.8</v>
+                  <v>1.966347692392427e-07</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.5</v>
+                  <v>2.08611428826323</v>
                 </pt>
                 <pt idx="4">
-                  <v>3</v>
+                  <v>24.01996556595497</v>
                 </pt>
                 <pt idx="5">
-                  <v>5</v>
+                  <v>42.27489478262859</v>
                 </pt>
                 <pt idx="6">
-                  <v>10</v>
+                  <v>45.93293110000679</v>
                 </pt>
                 <pt idx="7">
-                  <v>20</v>
+                  <v>42.57009902271032</v>
                 </pt>
                 <pt idx="8">
-                  <v>35</v>
+                  <v>37.25661298741962</v>
                 </pt>
                 <pt idx="9">
-                  <v>60</v>
+                  <v>31.98198279512949</v>
                 </pt>
                 <pt idx="10">
-                  <v>100</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>Sheet1!$C$5:$M$5</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="11"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>1.657660259292739e-14</v>
-                </pt>
-                <pt idx="2">
-                  <v>1.354560465338001e-05</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.2434214781536013</v>
-                </pt>
-                <pt idx="4">
-                  <v>4.392142432473033</v>
-                </pt>
-                <pt idx="5">
-                  <v>6.838757514102688</v>
-                </pt>
-                <pt idx="6">
-                  <v>6.149026430597606</v>
-                </pt>
-                <pt idx="7">
-                  <v>4.34882195919805</v>
-                </pt>
-                <pt idx="8">
-                  <v>3.181863711966468</v>
-                </pt>
-                <pt idx="9">
-                  <v>2.3615933670513</v>
-                </pt>
-                <pt idx="10">
-                  <v>1.793462340224739</v>
+                  <v>27.35198427580503</v>
+                </pt>
+                <pt idx="11">
+                  <v>23.46190597957832</v>
+                </pt>
+                <pt idx="12">
+                  <v>7.156020779601686</v>
+                </pt>
+                <pt idx="13">
+                  <v>1.952416783961566</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.9105460791090838</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.5330311608221312</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.3535787724139844</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.2537749606738334</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.1922680010323124</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.1515153060842986</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.1230199023883297</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.1022488016133878</v>
                 </pt>
               </numCache>
             </numRef>
@@ -660,17 +580,6 @@
         <ser>
           <idx val="4"/>
           <order val="4"/>
-          <tx>
-            <strRef>
-              <f>Sheet1!$A$6</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>9</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
@@ -695,86 +604,77 @@
               </a:ln>
             </spPr>
           </marker>
-          <cat>
+          <val>
             <numRef>
-              <f>Sheet1!$C$1:$M$1</f>
+              <f>(Sheet1!$A$5,Sheet1!$C$5:$W$5)</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="22"/>
                 <pt idx="0">
+                  <v>7</v>
+                </pt>
+                <pt idx="1">
                   <v>0</v>
                 </pt>
-                <pt idx="1">
-                  <v>0.5</v>
-                </pt>
                 <pt idx="2">
-                  <v>0.8</v>
+                  <v>0.0001409616588757113</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.5</v>
+                  <v>8.386915032015969</v>
                 </pt>
                 <pt idx="4">
-                  <v>3</v>
+                  <v>36.97872908493424</v>
                 </pt>
                 <pt idx="5">
-                  <v>5</v>
+                  <v>46.51066456895498</v>
                 </pt>
                 <pt idx="6">
-                  <v>10</v>
+                  <v>43.25724667028933</v>
                 </pt>
                 <pt idx="7">
-                  <v>20</v>
+                  <v>36.84287679170386</v>
                 </pt>
                 <pt idx="8">
-                  <v>35</v>
+                  <v>30.64303938603975</v>
                 </pt>
                 <pt idx="9">
-                  <v>60</v>
+                  <v>25.44935975250177</v>
                 </pt>
                 <pt idx="10">
-                  <v>100</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>Sheet1!$C$6:$M$6</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="11"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>3.037799364372667e-13</v>
-                </pt>
-                <pt idx="2">
-                  <v>4.424398796850822e-05</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.3308309565053713</v>
-                </pt>
-                <pt idx="4">
-                  <v>4.340890248620719</v>
-                </pt>
-                <pt idx="5">
-                  <v>6.175638788821594</v>
-                </pt>
-                <pt idx="6">
-                  <v>5.262175725645785</v>
-                </pt>
-                <pt idx="7">
-                  <v>3.639177531474008</v>
-                </pt>
-                <pt idx="8">
-                  <v>2.639619632180518</v>
-                </pt>
-                <pt idx="9">
-                  <v>1.950169526568086</v>
-                </pt>
-                <pt idx="10">
-                  <v>1.477324178635857</v>
+                  <v>21.27733377948941</v>
+                </pt>
+                <pt idx="11">
+                  <v>17.95770949614961</v>
+                </pt>
+                <pt idx="12">
+                  <v>5.200528480692451</v>
+                </pt>
+                <pt idx="13">
+                  <v>1.400620495604057</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.6516398904741608</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.381147923362799</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.2527308772575538</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.1813548505290766</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.1373827219148291</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.1082544407107737</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.08789010502237501</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.07304747865401441</v>
                 </pt>
               </numCache>
             </numRef>
@@ -784,17 +684,6 @@
         <ser>
           <idx val="5"/>
           <order val="5"/>
-          <tx>
-            <strRef>
-              <f>Sheet1!$A$7</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>11</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
@@ -819,86 +708,77 @@
               </a:ln>
             </spPr>
           </marker>
-          <cat>
+          <val>
             <numRef>
-              <f>Sheet1!$C$1:$M$1</f>
+              <f>(Sheet1!$A$6,Sheet1!$C$6:$W$6)</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="22"/>
                 <pt idx="0">
+                  <v>9</v>
+                </pt>
+                <pt idx="1">
                   <v>0</v>
                 </pt>
-                <pt idx="1">
-                  <v>0.5</v>
-                </pt>
                 <pt idx="2">
-                  <v>0.8</v>
+                  <v>0.003028513221474078</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.5</v>
+                  <v>14.95464159476817</v>
                 </pt>
                 <pt idx="4">
-                  <v>3</v>
+                  <v>41.58617237644903</v>
                 </pt>
                 <pt idx="5">
-                  <v>5</v>
+                  <v>44.51307885975798</v>
                 </pt>
                 <pt idx="6">
-                  <v>10</v>
+                  <v>38.42070425985127</v>
                 </pt>
                 <pt idx="7">
-                  <v>20</v>
+                  <v>31.42276690350691</v>
                 </pt>
                 <pt idx="8">
-                  <v>35</v>
+                  <v>25.50357740270189</v>
                 </pt>
                 <pt idx="9">
-                  <v>60</v>
+                  <v>20.8474183340159</v>
                 </pt>
                 <pt idx="10">
-                  <v>100</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>Sheet1!$C$7:$M$7</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="11"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>2.367488538724202e-12</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.000100755921739764</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.4030590100269112</v>
-                </pt>
-                <pt idx="4">
-                  <v>4.213582943152838</v>
-                </pt>
-                <pt idx="5">
-                  <v>5.620727513286239</v>
-                </pt>
-                <pt idx="6">
-                  <v>4.609163315266293</v>
-                </pt>
-                <pt idx="7">
-                  <v>3.137045870453012</v>
-                </pt>
-                <pt idx="8">
-                  <v>2.261352658558965</v>
-                </pt>
-                <pt idx="9">
-                  <v>1.665244160814624</v>
-                </pt>
-                <pt idx="10">
-                  <v>1.259239359182669</v>
+                  <v>17.24114999399446</v>
+                </pt>
+                <pt idx="11">
+                  <v>14.43840439988763</v>
+                </pt>
+                <pt idx="12">
+                  <v>4.07855376828404</v>
+                </pt>
+                <pt idx="13">
+                  <v>1.091633370655063</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.5072984626228744</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.2966021449334734</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.1966337051774745</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.1410862839221771</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.106871321975974</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.08420881402473711</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.06836597277548408</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.05681941952350299</v>
                 </pt>
               </numCache>
             </numRef>
@@ -908,17 +788,6 @@
         <ser>
           <idx val="6"/>
           <order val="6"/>
-          <tx>
-            <strRef>
-              <f>Sheet1!$A$8</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>13</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
@@ -949,86 +818,77 @@
               </a:ln>
             </spPr>
           </marker>
-          <cat>
+          <val>
             <numRef>
-              <f>Sheet1!$C$1:$M$1</f>
+              <f>(Sheet1!$A$7,Sheet1!$C$7:$W$7)</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="22"/>
                 <pt idx="0">
+                  <v>11</v>
+                </pt>
+                <pt idx="1">
                   <v>0</v>
                 </pt>
-                <pt idx="1">
-                  <v>0.5</v>
-                </pt>
                 <pt idx="2">
-                  <v>0.8</v>
+                  <v>0.01686959898380954</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.5</v>
+                  <v>19.76433464065219</v>
                 </pt>
                 <pt idx="4">
-                  <v>3</v>
+                  <v>42.10727708638489</v>
                 </pt>
                 <pt idx="5">
-                  <v>5</v>
+                  <v>41.05835543115784</v>
                 </pt>
                 <pt idx="6">
-                  <v>10</v>
+                  <v>33.94190112644133</v>
                 </pt>
                 <pt idx="7">
-                  <v>20</v>
+                  <v>27.11651317181347</v>
                 </pt>
                 <pt idx="8">
-                  <v>35</v>
+                  <v>21.69958595995411</v>
                 </pt>
                 <pt idx="9">
-                  <v>60</v>
+                  <v>17.57592247670706</v>
                 </pt>
                 <pt idx="10">
-                  <v>100</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>Sheet1!$C$8:$M$8</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="11"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>1.111877676711954e-11</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.0001856775042033661</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.4616334458545954</v>
-                </pt>
-                <pt idx="4">
-                  <v>4.060116420532997</v>
-                </pt>
-                <pt idx="5">
-                  <v>5.157243749140765</v>
-                </pt>
-                <pt idx="6">
-                  <v>4.107560202574274</v>
-                </pt>
-                <pt idx="7">
-                  <v>2.761889766005492</v>
-                </pt>
-                <pt idx="8">
-                  <v>1.981562745510503</v>
-                </pt>
-                <pt idx="9">
-                  <v>1.455581924951045</v>
-                </pt>
-                <pt idx="10">
-                  <v>1.099206271520023</v>
+                  <v>14.44442703274185</v>
+                </pt>
+                <pt idx="11">
+                  <v>12.04201823531911</v>
+                </pt>
+                <pt idx="12">
+                  <v>3.353038808156104</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.8942259496273326</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.4152835863607426</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.2427472238742546</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.1609129843707559</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.1154496094203979</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.08744873008967055</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.06890328303692055</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.05593910745961302</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.04649084528653861</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1038,17 +898,6 @@
         <ser>
           <idx val="7"/>
           <order val="7"/>
-          <tx>
-            <strRef>
-              <f>Sheet1!$A$9</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>15</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
@@ -1079,86 +928,77 @@
               </a:ln>
             </spPr>
           </marker>
-          <cat>
+          <val>
             <numRef>
-              <f>Sheet1!$C$1:$M$1</f>
+              <f>(Sheet1!$A$8,Sheet1!$C$8:$W$8)</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="22"/>
                 <pt idx="0">
+                  <v>13</v>
+                </pt>
+                <pt idx="1">
                   <v>0</v>
                 </pt>
-                <pt idx="1">
-                  <v>0.5</v>
-                </pt>
                 <pt idx="2">
-                  <v>0.8</v>
+                  <v>0.04930878486274889</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.5</v>
+                  <v>22.79943493550222</v>
                 </pt>
                 <pt idx="4">
-                  <v>3</v>
+                  <v>40.89078077268133</v>
                 </pt>
                 <pt idx="5">
-                  <v>5</v>
+                  <v>37.54041080904506</v>
                 </pt>
                 <pt idx="6">
-                  <v>10</v>
+                  <v>30.18007434024188</v>
                 </pt>
                 <pt idx="7">
-                  <v>20</v>
+                  <v>23.74859411505867</v>
                 </pt>
                 <pt idx="8">
-                  <v>35</v>
+                  <v>18.83163063558596</v>
                 </pt>
                 <pt idx="9">
-                  <v>60</v>
+                  <v>15.16280311125093</v>
                 </pt>
                 <pt idx="10">
-                  <v>100</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>Sheet1!$C$9:$M$9</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="11"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>3.758833175670345e-11</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.0002985964244689445</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.5088281528443749</v>
-                </pt>
-                <pt idx="4">
-                  <v>3.901339268301807</v>
-                </pt>
-                <pt idx="5">
-                  <v>4.766576976190516</v>
-                </pt>
-                <pt idx="6">
-                  <v>3.709502095389674</v>
-                </pt>
-                <pt idx="7">
-                  <v>2.470287468252037</v>
-                </pt>
-                <pt idx="8">
-                  <v>1.765729139325073</v>
-                </pt>
-                <pt idx="9">
-                  <v>1.294477577087286</v>
-                </pt>
-                <pt idx="10">
-                  <v>0.9764954401271314</v>
+                  <v>12.41069772289034</v>
+                </pt>
+                <pt idx="11">
+                  <v>10.31649840722885</v>
+                </pt>
+                <pt idx="12">
+                  <v>2.845993070814529</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.7572391909052855</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.351514825497254</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.2054412860671526</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.1361740202952004</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.09769654102313961</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.07399975942903844</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.05830560125092357</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.04733490195414231</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.03933962670879113</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1168,17 +1008,6 @@
         <ser>
           <idx val="8"/>
           <order val="8"/>
-          <tx>
-            <strRef>
-              <f>Sheet1!$A$10</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>17</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
@@ -1209,86 +1038,77 @@
               </a:ln>
             </spPr>
           </marker>
-          <cat>
+          <val>
             <numRef>
-              <f>Sheet1!$C$1:$M$1</f>
+              <f>(Sheet1!$A$9,Sheet1!$C$9:$W$9)</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="22"/>
                 <pt idx="0">
+                  <v>15</v>
+                </pt>
+                <pt idx="1">
                   <v>0</v>
                 </pt>
-                <pt idx="1">
-                  <v>0.5</v>
-                </pt>
                 <pt idx="2">
-                  <v>0.8</v>
+                  <v>0.1013081898390364</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.5</v>
+                  <v>24.51846161160941</v>
                 </pt>
                 <pt idx="4">
-                  <v>3</v>
+                  <v>39.00582916709918</v>
                 </pt>
                 <pt idx="5">
-                  <v>5</v>
+                  <v>34.33842521543348</v>
                 </pt>
                 <pt idx="6">
-                  <v>10</v>
+                  <v>27.07491643890964</v>
                 </pt>
                 <pt idx="7">
-                  <v>20</v>
+                  <v>21.08157252547824</v>
                 </pt>
                 <pt idx="8">
-                  <v>35</v>
+                  <v>16.61079395750099</v>
                 </pt>
                 <pt idx="9">
-                  <v>60</v>
+                  <v>13.31953011127025</v>
                 </pt>
                 <pt idx="10">
-                  <v>100</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>Sheet1!$C$10:$M$10</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="11"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>1.012190719209187e-10</v>
-                </pt>
-                <pt idx="2">
-                  <v>0.000437317932118823</v>
-                </pt>
-                <pt idx="3">
-                  <v>0.5467755728860878</v>
-                </pt>
-                <pt idx="4">
-                  <v>3.746261241193078</v>
-                </pt>
-                <pt idx="5">
-                  <v>4.433524253031236</v>
-                </pt>
-                <pt idx="6">
-                  <v>3.385431633985862</v>
-                </pt>
-                <pt idx="7">
-                  <v>2.236716293858469</v>
-                </pt>
-                <pt idx="8">
-                  <v>1.593879714925702</v>
-                </pt>
-                <pt idx="9">
-                  <v>1.166601069566656</v>
-                </pt>
-                <pt idx="10">
-                  <v>0.8792560617810016</v>
+                  <v>10.87117015233288</v>
+                </pt>
+                <pt idx="11">
+                  <v>9.018474680619766</v>
+                </pt>
+                <pt idx="12">
+                  <v>2.471855630326375</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.6566281067621818</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.3047192353491543</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.1780731296349921</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.1180276715616163</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.08467541102088307</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.06413594926409483</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0505332249051601</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.04102467461414906</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.03409507888236737</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1298,17 +1118,6 @@
         <ser>
           <idx val="9"/>
           <order val="9"/>
-          <tx>
-            <strRef>
-              <f>Sheet1!$A$11</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>19</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
           <spPr>
             <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
@@ -1339,86 +1148,170 @@
               </a:ln>
             </spPr>
           </marker>
-          <cat>
+          <val>
             <numRef>
-              <f>Sheet1!$C$1:$M$1</f>
+              <f>(Sheet1!$A$10,Sheet1!$C$10:$W$10)</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="22"/>
                 <pt idx="0">
+                  <v>17</v>
+                </pt>
+                <pt idx="1">
                   <v>0</v>
                 </pt>
-                <pt idx="1">
-                  <v>0.5</v>
-                </pt>
                 <pt idx="2">
-                  <v>0.8</v>
+                  <v>0.1684877230186702</v>
                 </pt>
                 <pt idx="3">
-                  <v>1.5</v>
+                  <v>25.3487119875363</v>
                 </pt>
                 <pt idx="4">
-                  <v>3</v>
+                  <v>36.92824518962421</v>
                 </pt>
                 <pt idx="5">
-                  <v>5</v>
+                  <v>31.52301853948227</v>
                 </pt>
                 <pt idx="6">
-                  <v>10</v>
+                  <v>24.50308222202212</v>
                 </pt>
                 <pt idx="7">
-                  <v>20</v>
+                  <v>18.93180598682194</v>
                 </pt>
                 <pt idx="8">
-                  <v>35</v>
+                  <v>14.84741049870991</v>
                 </pt>
                 <pt idx="9">
-                  <v>60</v>
+                  <v>11.8695024120923</v>
                 </pt>
                 <pt idx="10">
-                  <v>100</v>
+                  <v>9.667566460050566</v>
+                </pt>
+                <pt idx="11">
+                  <v>8.00807702457219</v>
+                </pt>
+                <pt idx="12">
+                  <v>2.184508018202001</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.5796073140223031</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.2689172581428996</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.1571389120132345</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.1041486644878661</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.07471688677293192</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.05659237362099989</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.044589243643037</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.03619895047937805</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.03008436985876851</v>
                 </pt>
               </numCache>
             </numRef>
-          </cat>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="10"/>
+          <order val="10"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
           <val>
             <numRef>
-              <f>Sheet1!$C$11:$M$11</f>
+              <f>(Sheet1!$A$11,Sheet1!$C$11:$W$11)</f>
               <numCache>
                 <formatCode>General</formatCode>
-                <ptCount val="11"/>
+                <ptCount val="22"/>
                 <pt idx="0">
+                  <v>19</v>
+                </pt>
+                <pt idx="1">
                   <v>0</v>
                 </pt>
-                <pt idx="1">
-                  <v>2.311063031407698e-10</v>
-                </pt>
                 <pt idx="2">
-                  <v>0.0005987823367804505</v>
+                  <v>0.244693667719212</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.5772614895105326</v>
+                  <v>25.60006126535423</v>
                 </pt>
                 <pt idx="4">
-                  <v>3.598676863306122</v>
+                  <v>34.86801546286875</v>
                 </pt>
                 <pt idx="5">
-                  <v>4.146406907669956</v>
+                  <v>29.07170912259259</v>
                 </pt>
                 <pt idx="6">
-                  <v>3.116125749434626</v>
+                  <v>22.35272132464193</v>
                 </pt>
                 <pt idx="7">
-                  <v>2.045161939841834</v>
+                  <v>17.1684336845357</v>
                 </pt>
                 <pt idx="8">
-                  <v>1.453630441211112</v>
+                  <v>13.41649522069607</v>
                 </pt>
                 <pt idx="9">
-                  <v>1.062502740106904</v>
+                  <v>10.7007617615801</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.800205895159401</v>
+                  <v>8.701808333855833</v>
+                </pt>
+                <pt idx="11">
+                  <v>7.199911423950878</v>
+                </pt>
+                <pt idx="12">
+                  <v>1.956928063916097</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.5187530367446005</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.2406425539368498</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.1406086151558521</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.09319016091437746</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0668542000463178</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.05063653301326063</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.03989639390946862</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.03238901884150008</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.02691792003790384</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1527,7 +1420,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -1628,7 +1521,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -1666,7 +1559,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="zh-CN"/>
         </a:p>
@@ -1682,16 +1575,16 @@
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>2</col>
-      <colOff>438150</colOff>
-      <row>2</row>
-      <rowOff>63500</rowOff>
+      <col>6</col>
+      <colOff>582930</colOff>
+      <row>4</row>
+      <rowOff>25400</rowOff>
     </from>
     <to>
-      <col>15</col>
-      <colOff>95250</colOff>
-      <row>20</row>
-      <rowOff>88900</rowOff>
+      <col>19</col>
+      <colOff>240030</colOff>
+      <row>22</row>
+      <rowOff>50800</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1977,13 +1870,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -2000,34 +1893,64 @@
         <v>0</v>
       </c>
       <c r="D1" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M1" t="n">
         <v>0.5</v>
       </c>
-      <c r="E1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F1" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G1" t="n">
+      <c r="N1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1" t="n">
         <v>3</v>
       </c>
-      <c r="H1" t="n">
+      <c r="Q1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R1" t="n">
         <v>5</v>
       </c>
-      <c r="I1" t="n">
+      <c r="S1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U1" t="n">
+        <v>8</v>
+      </c>
+      <c r="V1" t="n">
+        <v>9</v>
+      </c>
+      <c r="W1" t="n">
         <v>10</v>
-      </c>
-      <c r="J1" t="n">
-        <v>20</v>
-      </c>
-      <c r="K1" t="n">
-        <v>35</v>
-      </c>
-      <c r="L1" t="n">
-        <v>60</v>
-      </c>
-      <c r="M1" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="2">
@@ -2041,34 +1964,64 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>9.732290940443023e-104</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.850652360400833e-24</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.001124114746035e-09</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0001829264842659083</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0302633886185275</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4300387342403578</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.952052219227675</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.877321697113171</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.677077356045309</v>
+      </c>
+      <c r="M2" t="n">
         <v>12.56866474523294</v>
       </c>
-      <c r="E2" t="n">
-        <v>22.40029169808893</v>
-      </c>
-      <c r="F2" t="n">
-        <v>13.10546448610825</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="N2" t="n">
+        <v>20.47059939134863</v>
+      </c>
+      <c r="O2" t="n">
+        <v>8.490138544254444</v>
+      </c>
+      <c r="P2" t="n">
         <v>4.278842117868336</v>
       </c>
-      <c r="H2" t="n">
+      <c r="Q2" t="n">
+        <v>2.573745871209594</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.728843758884483</v>
       </c>
-      <c r="I2" t="n">
+      <c r="S2" t="n">
+        <v>1.249344921474599</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.9504467950045677</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.7509954000036365</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.6108736875925327</v>
+      </c>
+      <c r="W2" t="n">
         <v>0.5083971655755939</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.1563861392018306</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.06260642460422987</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.02657905577455605</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0119960151180749</v>
       </c>
     </row>
     <row r="3">
@@ -2082,34 +2035,64 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>2.988557067250278e-16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01910622861461974</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.962519448935131</v>
+      </c>
+      <c r="G3" t="n">
+        <v>19.18352072654361</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33.2943859057432</v>
+      </c>
+      <c r="I3" t="n">
+        <v>39.79614267433649</v>
+      </c>
+      <c r="J3" t="n">
+        <v>40.6033021187552</v>
+      </c>
+      <c r="K3" t="n">
+        <v>38.50378224814001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>35.25592088446234</v>
+      </c>
+      <c r="M3" t="n">
         <v>31.75495960416669</v>
       </c>
-      <c r="E3" t="n">
-        <v>16.47188230460514</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.471033191314205</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="N3" t="n">
+        <v>11.32192370139057</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.211968314123242</v>
+      </c>
+      <c r="P3" t="n">
         <v>1.508827371316706</v>
       </c>
-      <c r="H3" t="n">
+      <c r="Q3" t="n">
+        <v>0.8855005610036424</v>
+      </c>
+      <c r="R3" t="n">
         <v>0.5880725779081223</v>
       </c>
-      <c r="I3" t="n">
+      <c r="S3" t="n">
+        <v>0.4223473151078884</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.3201065301176793</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2523202639325854</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2049014887667966</v>
+      </c>
+      <c r="W3" t="n">
         <v>0.1703260108532859</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.05219474506133571</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.02087743627427932</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.008860931518653675</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.003998874189333299</v>
       </c>
     </row>
     <row r="4">
@@ -2123,34 +2106,64 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>1.966347692392427e-07</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.08611428826323</v>
+      </c>
+      <c r="F4" t="n">
+        <v>24.01996556595497</v>
+      </c>
+      <c r="G4" t="n">
+        <v>42.27489478262859</v>
+      </c>
+      <c r="H4" t="n">
+        <v>45.93293110000679</v>
+      </c>
+      <c r="I4" t="n">
+        <v>42.57009902271032</v>
+      </c>
+      <c r="J4" t="n">
+        <v>37.25661298741962</v>
+      </c>
+      <c r="K4" t="n">
+        <v>31.98198279512949</v>
+      </c>
+      <c r="L4" t="n">
+        <v>27.35198427580503</v>
+      </c>
+      <c r="M4" t="n">
         <v>23.46190597957832</v>
       </c>
-      <c r="E4" t="n">
-        <v>10.72030561578743</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.359426139806639</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="N4" t="n">
+        <v>7.156020779601686</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.952416783961566</v>
+      </c>
+      <c r="P4" t="n">
         <v>0.9105460791090838</v>
       </c>
-      <c r="H4" t="n">
+      <c r="Q4" t="n">
+        <v>0.5330311608221312</v>
+      </c>
+      <c r="R4" t="n">
         <v>0.3535787724139844</v>
       </c>
-      <c r="I4" t="n">
+      <c r="S4" t="n">
+        <v>0.2537749606738334</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.1922680010323124</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.1515153060842986</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.1230199023883297</v>
+      </c>
+      <c r="W4" t="n">
         <v>0.1022488016133878</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0313209215215868</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.0125269939070892</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.005316635763635458</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.002399336999404504</v>
       </c>
     </row>
     <row r="5">
@@ -2164,34 +2177,64 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0.0001409616588757113</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.386915032015969</v>
+      </c>
+      <c r="F5" t="n">
+        <v>36.97872908493424</v>
+      </c>
+      <c r="G5" t="n">
+        <v>46.51066456895498</v>
+      </c>
+      <c r="H5" t="n">
+        <v>43.25724667028933</v>
+      </c>
+      <c r="I5" t="n">
+        <v>36.84287679170386</v>
+      </c>
+      <c r="J5" t="n">
+        <v>30.64303938603975</v>
+      </c>
+      <c r="K5" t="n">
+        <v>25.44935975250177</v>
+      </c>
+      <c r="L5" t="n">
+        <v>21.27733377948941</v>
+      </c>
+      <c r="M5" t="n">
         <v>17.95770949614961</v>
       </c>
-      <c r="E5" t="n">
-        <v>7.866906864042658</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.418088200487481</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="N5" t="n">
+        <v>5.200528480692451</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.400620495604057</v>
+      </c>
+      <c r="P5" t="n">
         <v>0.6516398904741608</v>
       </c>
-      <c r="H5" t="n">
+      <c r="Q5" t="n">
+        <v>0.381147923362799</v>
+      </c>
+      <c r="R5" t="n">
         <v>0.2527308772575538</v>
       </c>
-      <c r="I5" t="n">
+      <c r="S5" t="n">
+        <v>0.1813548505290766</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.1373827219148291</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1082544407107737</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.08789010502237501</v>
+      </c>
+      <c r="W5" t="n">
         <v>0.07304747865401441</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.02237305320770211</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.008947978999623364</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.003797615200866241</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.00171381510363069</v>
       </c>
     </row>
     <row r="6">
@@ -2205,34 +2248,64 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003028513221474078</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14.95464159476817</v>
+      </c>
+      <c r="F6" t="n">
+        <v>41.58617237644903</v>
+      </c>
+      <c r="G6" t="n">
+        <v>44.51307885975798</v>
+      </c>
+      <c r="H6" t="n">
+        <v>38.42070425985127</v>
+      </c>
+      <c r="I6" t="n">
+        <v>31.42276690350691</v>
+      </c>
+      <c r="J6" t="n">
+        <v>25.50357740270189</v>
+      </c>
+      <c r="K6" t="n">
+        <v>20.8474183340159</v>
+      </c>
+      <c r="L6" t="n">
+        <v>17.24114999399446</v>
+      </c>
+      <c r="M6" t="n">
         <v>14.43840439988763</v>
       </c>
-      <c r="E6" t="n">
-        <v>6.198541477218134</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.887683078657337</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="N6" t="n">
+        <v>4.07855376828404</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.091633370655063</v>
+      </c>
+      <c r="P6" t="n">
         <v>0.5072984626228744</v>
       </c>
-      <c r="H6" t="n">
+      <c r="Q6" t="n">
+        <v>0.2966021449334734</v>
+      </c>
+      <c r="R6" t="n">
         <v>0.1966337051774745</v>
       </c>
-      <c r="I6" t="n">
+      <c r="S6" t="n">
+        <v>0.1410862839221771</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.106871321975974</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.08420881402473711</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.06836597277548408</v>
+      </c>
+      <c r="W6" t="n">
         <v>0.05681941952350299</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.01740162453952077</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.006959586357394663</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.002953707518952052</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.00133296840873851</v>
       </c>
     </row>
     <row r="7">
@@ -2246,34 +2319,64 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0.01686959898380954</v>
+      </c>
+      <c r="E7" t="n">
+        <v>19.76433464065219</v>
+      </c>
+      <c r="F7" t="n">
+        <v>42.10727708638489</v>
+      </c>
+      <c r="G7" t="n">
+        <v>41.05835543115784</v>
+      </c>
+      <c r="H7" t="n">
+        <v>33.94190112644133</v>
+      </c>
+      <c r="I7" t="n">
+        <v>27.11651317181347</v>
+      </c>
+      <c r="J7" t="n">
+        <v>21.69958595995411</v>
+      </c>
+      <c r="K7" t="n">
+        <v>17.57592247670706</v>
+      </c>
+      <c r="L7" t="n">
+        <v>14.44442703274185</v>
+      </c>
+      <c r="M7" t="n">
         <v>12.04201823531911</v>
       </c>
-      <c r="E7" t="n">
-        <v>5.109675750734072</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.547763108626869</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="N7" t="n">
+        <v>3.353038808156104</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.8942259496273326</v>
+      </c>
+      <c r="P7" t="n">
         <v>0.4152835863607426</v>
       </c>
-      <c r="H7" t="n">
+      <c r="Q7" t="n">
+        <v>0.2427472238742546</v>
+      </c>
+      <c r="R7" t="n">
         <v>0.1609129843707559</v>
       </c>
-      <c r="I7" t="n">
+      <c r="S7" t="n">
+        <v>0.1154496094203979</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.08744873008967055</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.06890328303692055</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.05593910745961302</v>
+      </c>
+      <c r="W7" t="n">
         <v>0.04649084528653861</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.01423786349039512</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.005694229309784983</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.002416673007293516</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.001090611039219006</v>
       </c>
     </row>
     <row r="8">
@@ -2287,34 +2390,64 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0.04930878486274889</v>
+      </c>
+      <c r="E8" t="n">
+        <v>22.79943493550222</v>
+      </c>
+      <c r="F8" t="n">
+        <v>40.89078077268133</v>
+      </c>
+      <c r="G8" t="n">
+        <v>37.54041080904506</v>
+      </c>
+      <c r="H8" t="n">
+        <v>30.18007434024188</v>
+      </c>
+      <c r="I8" t="n">
+        <v>23.74859411505867</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18.83163063558596</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15.16280311125093</v>
+      </c>
+      <c r="L8" t="n">
+        <v>12.41069772289034</v>
+      </c>
+      <c r="M8" t="n">
         <v>10.31649840722885</v>
       </c>
-      <c r="E8" t="n">
-        <v>4.344558836607676</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.311450831761138</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="N8" t="n">
+        <v>2.845993070814529</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.7572391909052855</v>
+      </c>
+      <c r="P8" t="n">
         <v>0.351514825497254</v>
       </c>
-      <c r="H8" t="n">
+      <c r="Q8" t="n">
+        <v>0.2054412860671526</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.1361740202952004</v>
       </c>
-      <c r="I8" t="n">
+      <c r="S8" t="n">
+        <v>0.09769654102313961</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.07399975942903844</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.05830560125092357</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.04733490195414231</v>
+      </c>
+      <c r="W8" t="n">
         <v>0.03933962670879113</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.01204751629443622</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.004818206220844487</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.00204487892037814</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.0009228250114864023</v>
       </c>
     </row>
     <row r="9">
@@ -2328,34 +2461,64 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0.1013081898390364</v>
+      </c>
+      <c r="E9" t="n">
+        <v>24.51846161160941</v>
+      </c>
+      <c r="F9" t="n">
+        <v>39.00582916709918</v>
+      </c>
+      <c r="G9" t="n">
+        <v>34.33842521543348</v>
+      </c>
+      <c r="H9" t="n">
+        <v>27.07491643890964</v>
+      </c>
+      <c r="I9" t="n">
+        <v>21.08157252547824</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16.61079395750099</v>
+      </c>
+      <c r="K9" t="n">
+        <v>13.31953011127025</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10.87117015233288</v>
+      </c>
+      <c r="M9" t="n">
         <v>9.018474680619766</v>
       </c>
-      <c r="E9" t="n">
-        <v>3.778001317899943</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.137681317408606</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="N9" t="n">
+        <v>2.471855630326375</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.6566281067621818</v>
+      </c>
+      <c r="P9" t="n">
         <v>0.3047192353491543</v>
       </c>
-      <c r="H9" t="n">
+      <c r="Q9" t="n">
+        <v>0.1780731296349921</v>
+      </c>
+      <c r="R9" t="n">
         <v>0.1180276715616163</v>
       </c>
-      <c r="I9" t="n">
+      <c r="S9" t="n">
+        <v>0.08467541102088307</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.06413594926409483</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.0505332249051601</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.04102467461414906</v>
+      </c>
+      <c r="W9" t="n">
         <v>0.03409507888236737</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.01044123711660462</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.004175786080635426</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.001772229459971801</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.0007997818492076233</v>
       </c>
     </row>
     <row r="10">
@@ -2369,34 +2532,64 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0.1684877230186702</v>
+      </c>
+      <c r="E10" t="n">
+        <v>25.3487119875363</v>
+      </c>
+      <c r="F10" t="n">
+        <v>36.92824518962421</v>
+      </c>
+      <c r="G10" t="n">
+        <v>31.52301853948227</v>
+      </c>
+      <c r="H10" t="n">
+        <v>24.50308222202212</v>
+      </c>
+      <c r="I10" t="n">
+        <v>18.93180598682194</v>
+      </c>
+      <c r="J10" t="n">
+        <v>14.84741049870991</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11.8695024120923</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9.667566460050566</v>
+      </c>
+      <c r="M10" t="n">
         <v>8.00807702457219</v>
       </c>
-      <c r="E10" t="n">
-        <v>3.341794659205779</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.004543695052899</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="N10" t="n">
+        <v>2.184508018202001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.5796073140223031</v>
+      </c>
+      <c r="P10" t="n">
         <v>0.2689172581428996</v>
       </c>
-      <c r="H10" t="n">
+      <c r="Q10" t="n">
+        <v>0.1571389120132345</v>
+      </c>
+      <c r="R10" t="n">
         <v>0.1041486644878661</v>
       </c>
-      <c r="I10" t="n">
+      <c r="S10" t="n">
+        <v>0.07471688677293192</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.05659237362099989</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.044589243643037</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.03619895047937805</v>
+      </c>
+      <c r="W10" t="n">
         <v>0.03008436985876851</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.009212892777240493</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.003684521896227582</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.001563732564768894</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.0007056899787748404</v>
       </c>
     </row>
     <row r="11">
@@ -2410,34 +2603,64 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0.244693667719212</v>
+      </c>
+      <c r="E11" t="n">
+        <v>25.60006126535423</v>
+      </c>
+      <c r="F11" t="n">
+        <v>34.86801546286875</v>
+      </c>
+      <c r="G11" t="n">
+        <v>29.07170912259259</v>
+      </c>
+      <c r="H11" t="n">
+        <v>22.35272132464193</v>
+      </c>
+      <c r="I11" t="n">
+        <v>17.1684336845357</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13.41649522069607</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10.7007617615801</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8.701808333855833</v>
+      </c>
+      <c r="M11" t="n">
         <v>7.199911423950878</v>
       </c>
-      <c r="E11" t="n">
-        <v>2.995689494841822</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.899286108886582</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="N11" t="n">
+        <v>1.956928063916097</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.5187530367446005</v>
+      </c>
+      <c r="P11" t="n">
         <v>0.2406425539368498</v>
       </c>
-      <c r="H11" t="n">
+      <c r="Q11" t="n">
+        <v>0.1406086151558521</v>
+      </c>
+      <c r="R11" t="n">
         <v>0.09319016091437746</v>
       </c>
-      <c r="I11" t="n">
+      <c r="S11" t="n">
+        <v>0.0668542000463178</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.05063653301326063</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.03989639390946862</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.03238901884150008</v>
+      </c>
+      <c r="W11" t="n">
         <v>0.02691792003790384</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.008243139544675954</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.003296680744898237</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.001399129607520756</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.000631406899572941</v>
       </c>
     </row>
   </sheetData>
